--- a/TC4钛合金热处理研究进展/数据纯粹.xlsx
+++ b/TC4钛合金热处理研究进展/数据纯粹.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6ef72d3e05109b7/本科毕业论文/论文/TC4钛合金热处理研究进展/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{BD0F8152-EA0F-4234-AC7C-71486D2D23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7AB9988-8C9D-45A1-BFCF-12991D0FD018}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{BD0F8152-EA0F-4234-AC7C-71486D2D23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41DA91E8-2C5B-451B-94BF-65FF3D831C9D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
   </bookViews>
@@ -18,6 +18,88 @@
     <sheet name="数据清洗备份" sheetId="4" r:id="rId3"/>
     <sheet name="热处理实验" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">表格分析!$J$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">表格分析!$J$2:$J$52</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">表格分析!$J$2:$J$52</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">表格分析!$J$2:$J$55</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">表格分析!$N$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">表格分析!$N$2:$N$55</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">表格分析!$Q$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">表格分析!$Q$2:$Q$55</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">表格分析!$R$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">表格分析!$R$2:$R$55</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">表格分析!$J$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">表格分析!$J$2:$J$52</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">表格分析!$J$2:$J$55</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">表格分析!$J$2:$J$55</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">表格分析!$N$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">表格分析!$N$2:$N$55</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">表格分析!$Q$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">表格分析!$Q$2:$Q$55</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">表格分析!$R$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">表格分析!$R$2:$R$55</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">表格分析!$J$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">表格分析!$J$2:$J$52</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">表格分析!$J$2:$J$55</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">表格分析!$N$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">表格分析!$N$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">表格分析!$N$2:$N$55</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">表格分析!$Q$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">表格分析!$Q$2:$Q$55</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">表格分析!$R$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">表格分析!$R$2:$R$55</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">表格分析!$J$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">表格分析!$J$2:$J$55</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">表格分析!$N$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">表格分析!$N$2:$N$55</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">表格分析!$N$2:$N$55</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">表格分析!$Q$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">表格分析!$Q$2:$Q$55</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">表格分析!$R$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">表格分析!$R$2:$R$55</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">表格分析!$J$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">表格分析!$J$2:$J$52</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">表格分析!$J$2:$J$55</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">表格分析!$N$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">表格分析!$N$2:$N$55</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">表格分析!$Q$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">表格分析!$Q$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">表格分析!$Q$2:$Q$55</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">表格分析!$R$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">表格分析!$R$2:$R$55</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">表格分析!$J$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">表格分析!$J$2:$J$52</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">表格分析!$J$2:$J$55</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">表格分析!$N$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">表格分析!$N$2:$N$55</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">表格分析!$Q$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">表格分析!$Q$2:$Q$55</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">表格分析!$Q$2:$Q$55</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">表格分析!$R$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">表格分析!$R$2:$R$55</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">表格分析!$J$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">表格分析!$J$2:$J$52</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">表格分析!$J$2:$J$55</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">表格分析!$N$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">表格分析!$N$2:$N$55</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">表格分析!$Q$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">表格分析!$Q$2:$Q$55</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">表格分析!$R$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">表格分析!$R$1</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">表格分析!$R$2:$R$55</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">表格分析!$J$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">表格分析!$J$2:$J$52</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">表格分析!$J$2:$J$55</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">表格分析!$N$1</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">表格分析!$N$2:$N$55</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">表格分析!$Q$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">表格分析!$Q$2:$Q$55</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">表格分析!$R$1</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">表格分析!$R$2:$R$55</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">表格分析!$R$2:$R$55</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">表格分析!$J$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -211,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="70">
   <si>
     <t>冷却</t>
   </si>
@@ -416,15 +498,65 @@
   <si>
     <t>标准差</t>
   </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="霞鹜文楷"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="霞鹜文楷"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>屈强/Mpa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="霞鹜文楷"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="霞鹜文楷"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抗拉强度/Mpa</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +660,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="霞鹜文楷"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="霞鹜文楷"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="霞鹜文楷"/>
       <family val="1"/>
       <charset val="134"/>
@@ -716,17 +862,17 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -819,10 +965,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>表格分析!$J$3:$J$52</c:f>
+              <c:f>表格分析!$J$2:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>930</c:v>
                 </c:pt>
@@ -833,40 +979,40 @@
                   <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>960</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>930</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>870</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>960</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>960</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>954</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>954</c:v>
@@ -893,19 +1039,19 @@
                   <c:v>954</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>952</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>967</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>997</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>970</c:v>
@@ -923,28 +1069,28 @@
                   <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>920</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>960</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>920</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>940</c:v>
@@ -962,15 +1108,18 @@
                   <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>780</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>920</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>1030</c:v>
                 </c:pt>
               </c:numCache>
@@ -978,158 +1127,161 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>表格分析!$R$3:$R$52</c:f>
+              <c:f>表格分析!$R$2:$R$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1010</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>995</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>985</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>962</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>946</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>925</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>887</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1078</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1047</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1039</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>993</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>986</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>970</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>944</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1177</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1157</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1147</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1144</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1141</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1128</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>1123</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>1122</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>1098</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>915</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>875</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>861</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>843</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>1218</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>1210</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1205</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>1178</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>1124</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>1070</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>1050</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>790</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>1054</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>972</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>971</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>929</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>918</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>913</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>898</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>987</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>986</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>949</c:v>
                 </c:pt>
               </c:numCache>
@@ -1439,12 +1591,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1474,44 +1621,14 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1520,13 +1637,742 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>表格分析!$N$2:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>530</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>表格分析!$R$2:$R$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-19EF-43F3-B0BF-3A112A4AD277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="131367712"/>
+        <c:axId val="131369152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="131367712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时效</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>温度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>℃</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131369152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="131369152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>b</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>抗拉强度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/Mpa </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131367712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="pct5">
+          <a:fgClr>
+            <a:schemeClr val="accent1"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11471057839281314"/>
+          <c:y val="6.0126377099267055E-2"/>
+          <c:w val="0.81560080216843611"/>
+          <c:h val="0.67255037969273235"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>表格分析!$C$1</c:f>
+              <c:f>表格分析!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Al</c:v>
+                  <c:v>σ0.2屈强/Mpa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1543,67 +2389,327 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(表格分析!$B$2,表格分析!$B$10,表格分析!$B$17,表格分析!$B$26,表格分析!$B$43,表格分析!$B$50)</c:f>
+              <c:f>表格分析!$N$2:$N$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>89.4</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.73</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.385999999999996</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.373999999999995</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.344000000000008</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.65</c:v>
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(表格分析!$C$2,表格分析!$C$10,表格分析!$C$17,表格分析!$C$26,表格分析!$C$43,表格分析!$C$50)</c:f>
+              <c:f>表格分析!$Q$2:$Q$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.65</c:v>
+                <c:ptCount val="54"/>
+                <c:pt idx="8">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,7 +2717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB82-4E69-AE2D-5440DDB5DE34}"/>
+              <c16:uniqueId val="{00000000-BFB5-4B46-84DF-41D3117E141B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1620,11 +2726,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>表格分析!$D$1</c:f>
+              <c:f>表格分析!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>V</c:v>
+                  <c:v>σb抗拉强度/Mpa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1640,497 +2746,11 @@
             <c:symbol val="square"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="6350">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(表格分析!$B$2,表格分析!$B$10,表格分析!$B$17,表格分析!$B$26,表格分析!$B$43,表格分析!$B$50)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>89.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89.73</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.385999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.373999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.344000000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(表格分析!$D$2,表格分析!$D$10,表格分析!$D$17,表格分析!$D$26,表格分析!$D$43,表格分析!$D$50)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.08</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB82-4E69-AE2D-5440DDB5DE34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>表格分析!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(表格分析!$B$2,表格分析!$B$10,表格分析!$B$17,表格分析!$B$26,表格分析!$B$43,表格分析!$B$50)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>89.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89.73</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.385999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.373999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.344000000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(表格分析!$E$2,表格分析!$E$10,表格分析!$E$17,表格分析!$E$26,表格分析!$E$43,表格分析!$E$50)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB82-4E69-AE2D-5440DDB5DE34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>表格分析!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(表格分析!$B$2,表格分析!$B$10,表格分析!$B$17,表格分析!$B$26,表格分析!$B$43,表格分析!$B$50)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>89.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89.73</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.385999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.373999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.344000000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(表格分析!$F$2,表格分析!$F$10,表格分析!$F$17,表格分析!$F$26,表格分析!$F$43,表格分析!$F$50)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.08</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CB82-4E69-AE2D-5440DDB5DE34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>表格分析!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(表格分析!$B$2,表格分析!$B$10,表格分析!$B$17,表格分析!$B$26,表格分析!$B$43,表格分析!$B$50)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>89.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89.73</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.385999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.373999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.344000000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(表格分析!$G$2,表格分析!$G$10,表格分析!$G$17,表格分析!$G$26,表格分析!$G$43,表格分析!$G$50)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CB82-4E69-AE2D-5440DDB5DE34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>表格分析!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>O</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(表格分析!$B$2,表格分析!$B$10,表格分析!$B$17,表格分析!$B$26,表格分析!$B$43,表格分析!$B$50)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>89.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89.73</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.385999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.373999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.344000000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(表格分析!$H$2,表格分析!$H$10,表格分析!$H$17,表格分析!$H$26,表格分析!$H$43,表格分析!$H$50)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CB82-4E69-AE2D-5440DDB5DE34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>表格分析!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
@@ -2138,56 +2758,341 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(表格分析!$B$2,表格分析!$B$10,表格分析!$B$17,表格分析!$B$26,表格分析!$B$43,表格分析!$B$50)</c:f>
+              <c:f>表格分析!$N$2:$N$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>89.4</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.73</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.385999999999996</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.373999999999995</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.344000000000008</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.65</c:v>
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(表格分析!$I$2,表格分析!$I$10,表格分析!$I$17,表格分析!$I$26,表格分析!$I$43,表格分析!$I$50)</c:f>
+              <c:f>表格分析!$R$2:$R$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2E-3</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,11 +3100,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-CB82-4E69-AE2D-5440DDB5DE34}"/>
+              <c16:uniqueId val="{00000003-BFB5-4B46-84DF-41D3117E141B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2207,13 +3113,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="366245999"/>
-        <c:axId val="366257039"/>
+        <c:axId val="179478512"/>
+        <c:axId val="179475152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="366245999"/>
+        <c:axId val="179478512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2221,7 +3128,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2231,6 +3138,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时效温度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>℃</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2239,9 +3209,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2253,9 +3224,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2268,14 +3239,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366257039"/>
+        <c:crossAx val="179475152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="366257039"/>
+        <c:axId val="179475152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="700"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2283,7 +3255,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2293,6 +3265,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>强度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/Mpa</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2304,6 +3336,7 @@
               <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2317,7 +3350,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2330,20 +3363,42 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366245999"/>
+        <c:crossAx val="179478512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="pct5">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3597619837488412E-2"/>
+          <c:y val="0.85761368596250709"/>
+          <c:w val="0.97203178470365392"/>
+          <c:h val="0.10322849948137185"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2358,8 +3413,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -2382,12 +3440,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2408,6 +3461,72 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.45</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.50</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.45</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.52</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{CFD729A3-034B-4226-8510-7ABB9C8C3253}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:v>σ0.2屈强/Mpa</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{239C5080-19B3-4963-9A4A-0C3F4511BC53}" formatIdx="3">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:v>σb抗拉强度/Mpa</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2438,6 +3557,33 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2473,6 +3619,33 @@
   <cs:variation>
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -3054,25 +4227,25 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3080,17 +4253,18 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3103,7 +4277,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3118,12 +4292,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3190,12 +4364,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3214,9 +4390,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3248,6 +4424,1159 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
@@ -3263,7 +5592,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -3275,15 +5604,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3294,16 +5623,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3312,10 +5642,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3331,7 +5661,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3339,7 +5669,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3358,16 +5688,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3376,16 +5707,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3394,16 +5726,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3417,14 +5750,14 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3432,7 +5765,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3456,22 +5789,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3487,7 +5817,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3496,13 +5826,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3516,7 +5847,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3532,8 +5863,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3549,25 +5880,14 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3577,16 +5897,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>17585</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>93198</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>287215</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>69752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>253804</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>164123</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>634803</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>140677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3613,23 +5933,61 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>195191</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>857542</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>148299</xdr:rowOff>
+      <xdr:rowOff>188157</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9FD05F-A5B0-5523-8A58-EA7CD3552E0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30257B8E-9A0E-4623-A2C0-39053A6EE203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9858</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>8527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>291477</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4212C94-C3F1-006C-354B-1A16C419595E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3641,10 +5999,88 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>255495</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="图表 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82095B3A-1106-B5B2-41CE-511AFBFCADCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4477871" y="1582271"/>
+              <a:ext cx="6055658" cy="3715870"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3675,6 +6111,10 @@
 </file>
 
 <file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3977,15 +6417,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD340EAD-D28B-4DE0-A4BA-61E72E8B0F82}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q1" activeCellId="3" sqref="J1:J1048576 N1:N1048576 R1:R1048576 Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="22"/>
-    <col min="2" max="2" width="9.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="8.88671875" style="22"/>
+    <col min="2" max="2" width="9.21875" style="22" hidden="1" customWidth="1"/>
+    <col min="3" max="9" width="0" style="22" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" style="22" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" style="22" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="22"/>
@@ -4051,10 +6491,10 @@
         <v>0</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="S1" s="22" t="s">
         <v>7</v>
@@ -7135,35 +9575,35 @@
       <c r="A53" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="38">
+      <c r="B53" s="36">
         <f>(AVERAGE(B43:B52)+AVERAGE(B2:B29))/2</f>
         <v>89.455042857142843</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="36">
         <f t="shared" ref="C53:I53" si="2">(AVERAGE(C43:C52)+AVERAGE(C2:C29))/2</f>
         <v>6.1180357142857149</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="36">
         <f t="shared" si="2"/>
         <v>4.0864642857142854</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="36">
         <f t="shared" si="2"/>
         <v>0.10205357142857144</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="36">
         <f t="shared" si="2"/>
         <v>2.8007142857142862E-2</v>
       </c>
-      <c r="G53" s="38">
+      <c r="G53" s="36">
         <f t="shared" si="2"/>
         <v>3.8903571428571412E-2</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="36">
         <f t="shared" si="2"/>
         <v>0.16432142857142856</v>
       </c>
-      <c r="I53" s="38">
+      <c r="I53" s="36">
         <f t="shared" si="2"/>
         <v>7.1714285714285708E-3</v>
       </c>
@@ -7172,35 +9612,35 @@
       <c r="A54" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="36">
         <f>STDEVPA(B43:B52,B2:B29)</f>
         <v>0.14688010261072312</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54" s="36">
         <f t="shared" ref="C54:I54" si="3">STDEVPA(C43:C52,C2:C29)</f>
         <v>0.25280312158386903</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="36">
         <f t="shared" si="3"/>
         <v>0.10361639513474795</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="36">
         <f t="shared" si="3"/>
         <v>7.3717046255172655E-2</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="36">
         <f t="shared" si="3"/>
         <v>1.9199347865194609E-2</v>
       </c>
-      <c r="G54" s="38">
+      <c r="G54" s="36">
         <f t="shared" si="3"/>
         <v>7.8468159641744667E-2</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H54" s="36">
         <f t="shared" si="3"/>
         <v>5.9699733431106163E-2</v>
       </c>
-      <c r="I54" s="38">
+      <c r="I54" s="36">
         <f t="shared" si="3"/>
         <v>1.4568231859130507E-2</v>
       </c>
@@ -7209,35 +9649,35 @@
       <c r="A55" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55" s="36">
         <f>VAR(B43:B52,B2:B29)</f>
         <v>2.215683926031322E-2</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="36">
         <f t="shared" ref="C55:I55" si="4">VAR(C43:C52,C2:C29)</f>
         <v>6.5636699857752501E-2</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="36">
         <f t="shared" si="4"/>
         <v>1.1026529160739682E-2</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="36">
         <f t="shared" si="4"/>
         <v>5.5810732574679998E-3</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="36">
         <f t="shared" si="4"/>
         <v>3.7857752489331366E-4</v>
       </c>
-      <c r="G55" s="38">
+      <c r="G55" s="36">
         <f t="shared" si="4"/>
         <v>6.3236642958748226E-3</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H55" s="36">
         <f t="shared" si="4"/>
         <v>3.6603840682787867E-3</v>
       </c>
-      <c r="I55" s="38">
+      <c r="I55" s="36">
         <f t="shared" si="4"/>
         <v>2.1796941678520635E-4</v>
       </c>
@@ -7270,7 +9710,7 @@
     <col min="12" max="12" width="14.21875" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.21875" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" style="37" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="35" customWidth="1"/>
     <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
     <col min="17" max="18" width="8.88671875" style="1"/>
     <col min="19" max="19" width="12.44140625" style="1" customWidth="1"/>
@@ -7426,7 +9866,7 @@
       <c r="X2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Y2" s="38" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7498,7 +9938,7 @@
       <c r="X3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="35"/>
+      <c r="Y3" s="38"/>
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -7568,7 +10008,7 @@
       <c r="X4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="35"/>
+      <c r="Y4" s="38"/>
     </row>
     <row r="5" spans="1:25" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
@@ -7638,7 +10078,7 @@
       <c r="X5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="35"/>
+      <c r="Y5" s="38"/>
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
@@ -7708,7 +10148,7 @@
       <c r="X6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="35" t="s">
+      <c r="Y6" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7780,7 +10220,7 @@
       <c r="X7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Y7" s="35"/>
+      <c r="Y7" s="38"/>
     </row>
     <row r="8" spans="1:25" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
@@ -7850,7 +10290,7 @@
       <c r="X8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="35"/>
+      <c r="Y8" s="38"/>
     </row>
     <row r="9" spans="1:25" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
@@ -7917,7 +10357,7 @@
       <c r="W9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" s="35"/>
+      <c r="Y9" s="38"/>
     </row>
     <row r="10" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
@@ -7990,7 +10430,7 @@
       <c r="X10" s="8">
         <v>1</v>
       </c>
-      <c r="Y10" s="36" t="s">
+      <c r="Y10" s="37" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8065,7 +10505,7 @@
       <c r="X11" s="8">
         <v>1</v>
       </c>
-      <c r="Y11" s="36"/>
+      <c r="Y11" s="37"/>
     </row>
     <row r="12" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
@@ -8138,7 +10578,7 @@
       <c r="X12" s="8">
         <v>1</v>
       </c>
-      <c r="Y12" s="36"/>
+      <c r="Y12" s="37"/>
     </row>
     <row r="13" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
@@ -8211,7 +10651,7 @@
       <c r="X13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Y13" s="36" t="s">
+      <c r="Y13" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8286,7 +10726,7 @@
       <c r="X14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" s="36"/>
+      <c r="Y14" s="37"/>
     </row>
     <row r="15" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
@@ -8359,7 +10799,7 @@
       <c r="X15" s="8">
         <v>1</v>
       </c>
-      <c r="Y15" s="36"/>
+      <c r="Y15" s="37"/>
     </row>
     <row r="16" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
@@ -8432,7 +10872,7 @@
       <c r="X16" s="8">
         <v>1</v>
       </c>
-      <c r="Y16" s="36"/>
+      <c r="Y16" s="37"/>
     </row>
     <row r="17" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">

--- a/TC4钛合金热处理研究进展/数据纯粹.xlsx
+++ b/TC4钛合金热处理研究进展/数据纯粹.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6ef72d3e05109b7/本科毕业论文/论文/TC4钛合金热处理研究进展/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{BD0F8152-EA0F-4234-AC7C-71486D2D23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41DA91E8-2C5B-451B-94BF-65FF3D831C9D}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{BD0F8152-EA0F-4234-AC7C-71486D2D23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2E7575-1986-40FD-A586-6DC157126B9F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
   </bookViews>
@@ -19,86 +19,11 @@
     <sheet name="热处理实验" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">表格分析!$J$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">表格分析!$J$2:$J$52</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">表格分析!$J$2:$J$52</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">表格分析!$J$2:$J$55</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">表格分析!$N$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">表格分析!$N$2:$N$55</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">表格分析!$Q$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">表格分析!$Q$2:$Q$55</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">表格分析!$R$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">表格分析!$R$2:$R$55</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">表格分析!$J$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">表格分析!$J$2:$J$52</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">表格分析!$J$2:$J$55</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">表格分析!$J$2:$J$55</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">表格分析!$N$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">表格分析!$N$2:$N$55</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">表格分析!$Q$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">表格分析!$Q$2:$Q$55</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">表格分析!$R$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">表格分析!$R$2:$R$55</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">表格分析!$J$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">表格分析!$J$2:$J$52</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">表格分析!$J$2:$J$55</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">表格分析!$N$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">表格分析!$N$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">表格分析!$N$2:$N$55</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">表格分析!$Q$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">表格分析!$Q$2:$Q$55</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">表格分析!$R$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">表格分析!$R$2:$R$55</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">表格分析!$J$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">表格分析!$J$2:$J$55</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">表格分析!$N$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">表格分析!$N$2:$N$55</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">表格分析!$N$2:$N$55</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">表格分析!$Q$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">表格分析!$Q$2:$Q$55</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">表格分析!$R$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">表格分析!$R$2:$R$55</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">表格分析!$J$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">表格分析!$J$2:$J$52</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">表格分析!$J$2:$J$55</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">表格分析!$N$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">表格分析!$N$2:$N$55</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">表格分析!$Q$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">表格分析!$Q$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">表格分析!$Q$2:$Q$55</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">表格分析!$R$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">表格分析!$R$2:$R$55</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">表格分析!$J$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">表格分析!$J$2:$J$52</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">表格分析!$J$2:$J$55</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">表格分析!$N$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">表格分析!$N$2:$N$55</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">表格分析!$Q$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">表格分析!$Q$2:$Q$55</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">表格分析!$Q$2:$Q$55</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">表格分析!$R$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">表格分析!$R$2:$R$55</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">表格分析!$J$1</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">表格分析!$J$2:$J$52</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">表格分析!$J$2:$J$55</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">表格分析!$N$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">表格分析!$N$2:$N$55</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">表格分析!$Q$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">表格分析!$Q$2:$Q$55</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">表格分析!$R$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">表格分析!$R$1</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">表格分析!$R$2:$R$55</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">表格分析!$J$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">表格分析!$J$2:$J$52</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">表格分析!$J$2:$J$55</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">表格分析!$N$1</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">表格分析!$N$2:$N$55</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">表格分析!$Q$1</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">表格分析!$Q$2:$Q$55</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">表格分析!$R$1</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">表格分析!$R$2:$R$55</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">表格分析!$R$2:$R$55</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">表格分析!$J$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">表格分析!$J$2:$J$52</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">表格分析!$Q$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">表格分析!$Q$2:$Q$55</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">表格分析!$R$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">表格分析!$R$2:$R$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -293,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="73">
   <si>
     <t>冷却</t>
   </si>
@@ -547,6 +472,15 @@
       </rPr>
       <t>抗拉强度/Mpa</t>
     </r>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>极差</t>
   </si>
 </sst>
 </file>
@@ -2355,9 +2289,1120 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11471057839281314"/>
-          <c:y val="6.0126377099267055E-2"/>
+          <c:y val="2.7545278428710806E-2"/>
           <c:w val="0.81560080216843611"/>
-          <c:h val="0.67255037969273235"/>
+          <c:h val="0.73771275858858987"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>表格分析!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>σ0.2屈强/Mpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>表格分析!$J$2:$J$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>表格分析!$Q$2:$Q$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="8">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.000">
+                  <c:v>953.5413043478261</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.000">
+                  <c:v>97.115683193396038</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.000">
+                  <c:v>9656.014396456203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA18-42ED-818A-134EE0790AF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>表格分析!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>σb抗拉强度/Mpa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>表格分析!$J$2:$J$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>表格分析!$R$2:$R$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.000">
+                  <c:v>1001.8743902439024</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.000">
+                  <c:v>105.89674557227396</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.000">
+                  <c:v>11438.403137254863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DA18-42ED-818A-134EE0790AF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="179478512"/>
+        <c:axId val="179475152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="179478512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="700"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>固溶温度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>℃</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179475152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="179475152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+          <c:min val="700"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>强度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/Mpa</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179478512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.6387060755025856E-2"/>
+          <c:y val="0.88793846927164655"/>
+          <c:w val="0.97203178470365392"/>
+          <c:h val="0.10515062512781458"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11471057839281314"/>
+          <c:y val="2.7545278428710806E-2"/>
+          <c:w val="0.81560080216843611"/>
+          <c:h val="0.73771275858858987"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2643,22 +3688,22 @@
                   <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1220</c:v>
+                  <c:v>1045</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1183</c:v>
+                  <c:v>1082</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1194</c:v>
+                  <c:v>1090</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1130</c:v>
+                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1181</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1152</c:v>
+                  <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1050</c:v>
@@ -2710,6 +3755,15 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.000">
+                  <c:v>953.5413043478261</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.000">
+                  <c:v>97.115683193396038</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.000">
+                  <c:v>9656.014396456203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2717,7 +3771,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFB5-4B46-84DF-41D3117E141B}"/>
+              <c16:uniqueId val="{00000001-E013-4181-AC8D-2C5238A58B20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3094,18 +4148,26 @@
                 <c:pt idx="50">
                   <c:v>949</c:v>
                 </c:pt>
+                <c:pt idx="51" formatCode="0.000">
+                  <c:v>1001.8743902439024</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.000">
+                  <c:v>105.89674557227396</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.000">
+                  <c:v>11438.403137254863</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BFB5-4B46-84DF-41D3117E141B}"/>
+              <c16:uniqueId val="{00000003-E013-4181-AC8D-2C5238A58B20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3120,6 +4182,7 @@
         <c:axId val="179478512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
           <c:min val="400"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3133,6 +4196,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3147,10 +4211,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3158,15 +4219,27 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>时效温度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>/</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>℃</a:t>
                 </a:r>
               </a:p>
@@ -3180,26 +4253,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3247,6 +4300,7 @@
         <c:axId val="179475152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1200"/>
           <c:min val="700"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3260,6 +4314,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3274,10 +4329,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3285,14 +4337,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>强度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>/Mpa</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3304,26 +4368,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3368,22 +4412,7 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:pattFill prst="pct5">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="bg1"/>
-          </a:bgClr>
-        </a:pattFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
+        <a:noFill/>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
@@ -3393,10 +4422,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.3597619837488412E-2"/>
-          <c:y val="0.85761368596250709"/>
+          <c:x val="1.6387060755025856E-2"/>
+          <c:y val="0.88793846927164655"/>
           <c:w val="0.97203178470365392"/>
-          <c:h val="0.10322849948137185"/>
+          <c:h val="0.10515062512781458"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3417,10 +4446,7 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3468,18 +4494,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.50</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3490,7 +4516,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CFD729A3-034B-4226-8510-7ABB9C8C3253}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>σ0.2屈强/Mpa</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3503,7 +4529,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{239C5080-19B3-4963-9A4A-0C3F4511BC53}" formatIdx="3">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>σb抗拉强度/Mpa</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3584,46 +4610,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -4803,582 +5789,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="15875">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5903,8 +6313,8 @@
       <xdr:rowOff>69752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>634803</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502023</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>140677</xdr:rowOff>
     </xdr:to>
@@ -5933,16 +6343,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>564777</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:rowOff>188949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>857542</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>188157</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525848</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>62652</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5971,52 +6381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9858</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>8527</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>183777</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>192742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>291477</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>173183</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4212C94-C3F1-006C-354B-1A16C419595E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>255495</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4483</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>143435</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -6037,7 +6411,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -6052,8 +6426,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4477871" y="1582271"/>
-              <a:ext cx="6055658" cy="3715870"/>
+              <a:off x="14433177" y="1777702"/>
+              <a:ext cx="6055658" cy="3732903"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6081,6 +6455,82 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>206188</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>197222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>430306</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44E7017-1ACD-4C89-AA40-68E4C0A33CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>708212</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>595385</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006AB064-9D53-4865-AE45-B3D608FFFA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6115,6 +6565,14 @@
 </file>
 
 <file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -6415,17 +6873,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD340EAD-D28B-4DE0-A4BA-61E72E8B0F82}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1" activeCellId="3" sqref="J1:J1048576 N1:N1048576 R1:R1048576 Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="22"/>
-    <col min="2" max="2" width="9.21875" style="22" hidden="1" customWidth="1"/>
-    <col min="3" max="9" width="0" style="22" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="22" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="22" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="22" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" style="22" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" style="22" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="22"/>
@@ -8372,7 +8832,7 @@
         <v>3</v>
       </c>
       <c r="Q30" s="30">
-        <v>1220</v>
+        <v>1045</v>
       </c>
       <c r="R30" s="30">
         <v>1218</v>
@@ -8417,7 +8877,7 @@
         <v>3</v>
       </c>
       <c r="Q31" s="30">
-        <v>1183</v>
+        <v>1082</v>
       </c>
       <c r="R31" s="30">
         <v>1210</v>
@@ -8462,7 +8922,7 @@
         <v>3</v>
       </c>
       <c r="Q32" s="30">
-        <v>1194</v>
+        <v>1090</v>
       </c>
       <c r="R32" s="30">
         <v>1205</v>
@@ -8507,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="Q33" s="30">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="R33" s="30">
         <v>1178</v>
@@ -8552,7 +9012,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="30">
-        <v>1181</v>
+        <v>1084</v>
       </c>
       <c r="R34" s="30">
         <v>1170</v>
@@ -8597,7 +9057,7 @@
         <v>3</v>
       </c>
       <c r="Q35" s="30">
-        <v>1152</v>
+        <v>1059</v>
       </c>
       <c r="R35" s="30">
         <v>1124</v>
@@ -9580,7 +10040,7 @@
         <v>89.455042857142843</v>
       </c>
       <c r="C53" s="36">
-        <f t="shared" ref="C53:I53" si="2">(AVERAGE(C43:C52)+AVERAGE(C2:C29))/2</f>
+        <f t="shared" ref="C53:T53" si="2">(AVERAGE(C43:C52)+AVERAGE(C2:C29))/2</f>
         <v>6.1180357142857149</v>
       </c>
       <c r="D53" s="36">
@@ -9607,6 +10067,29 @@
         <f t="shared" si="2"/>
         <v>7.1714285714285708E-3</v>
       </c>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36">
+        <f>(AVERAGE(Q30:Q52)+AVERAGE(Q10:Q29))/2</f>
+        <v>953.5413043478261</v>
+      </c>
+      <c r="R53" s="36">
+        <f>(AVERAGE(R43:R52)+AVERAGE(R2:R42))/2</f>
+        <v>1001.8743902439024</v>
+      </c>
+      <c r="S53" s="36">
+        <f>(AVERAGE(S30:S52)+AVERAGE(S2:S29))/2</f>
+        <v>12.160178571428572</v>
+      </c>
+      <c r="T53" s="36">
+        <f>AVERAGE(T36:T50)</f>
+        <v>44.024999999999999</v>
+      </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="22" t="s">
@@ -9617,7 +10100,7 @@
         <v>0.14688010261072312</v>
       </c>
       <c r="C54" s="36">
-        <f t="shared" ref="C54:I54" si="3">STDEVPA(C43:C52,C2:C29)</f>
+        <f t="shared" ref="C54:T54" si="3">STDEVPA(C43:C52,C2:C29)</f>
         <v>0.25280312158386903</v>
       </c>
       <c r="D54" s="36">
@@ -9644,6 +10127,29 @@
         <f t="shared" si="3"/>
         <v>1.4568231859130507E-2</v>
       </c>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36">
+        <f>STDEVPA(Q10:Q52)</f>
+        <v>97.115683193396038</v>
+      </c>
+      <c r="R54" s="36">
+        <f>STDEVPA(R2:R52)</f>
+        <v>105.89674557227396</v>
+      </c>
+      <c r="S54" s="36">
+        <f>STDEVPA(S2:S52)</f>
+        <v>4.0767382514998074</v>
+      </c>
+      <c r="T54" s="36">
+        <f t="shared" si="3"/>
+        <v>20.501985966521111</v>
+      </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="22" t="s">
@@ -9654,7 +10160,7 @@
         <v>2.215683926031322E-2</v>
       </c>
       <c r="C55" s="36">
-        <f t="shared" ref="C55:I55" si="4">VAR(C43:C52,C2:C29)</f>
+        <f t="shared" ref="C55:T55" si="4">VAR(C43:C52,C2:C29)</f>
         <v>6.5636699857752501E-2</v>
       </c>
       <c r="D55" s="36">
@@ -9680,6 +10186,176 @@
       <c r="I55" s="36">
         <f t="shared" si="4"/>
         <v>2.1796941678520635E-4</v>
+      </c>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36">
+        <f>VAR(Q10:Q52)</f>
+        <v>9656.014396456203</v>
+      </c>
+      <c r="R55" s="36">
+        <f>VAR(R30:R52,R2:R29)</f>
+        <v>11438.403137254863</v>
+      </c>
+      <c r="S55" s="36">
+        <f>VAR(S30:S52,S2:S29)</f>
+        <v>16.952190666666649</v>
+      </c>
+      <c r="T55" s="36">
+        <f>VAR(T36:T49)</f>
+        <v>85.476365384615264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A56" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="22">
+        <f>MAX(B2:B52)</f>
+        <v>89.73</v>
+      </c>
+      <c r="C56" s="22">
+        <f t="shared" ref="C56:S56" si="5">MAX(C2:C52)</f>
+        <v>6.4</v>
+      </c>
+      <c r="D56" s="22">
+        <f t="shared" si="5"/>
+        <v>4.25</v>
+      </c>
+      <c r="E56" s="22">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="F56" s="22">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="G56" s="22">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="H56" s="22">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="I56" s="22">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="Q56" s="22">
+        <f t="shared" si="5"/>
+        <v>1110</v>
+      </c>
+      <c r="R56" s="22">
+        <f t="shared" si="5"/>
+        <v>1218</v>
+      </c>
+      <c r="S56" s="22">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A57" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="22">
+        <f>MIN(B2:B52)</f>
+        <v>89.344000000000008</v>
+      </c>
+      <c r="C57" s="22">
+        <f t="shared" ref="C57:S57" si="6">MIN(C2:C52)</f>
+        <v>5.65</v>
+      </c>
+      <c r="D57" s="22">
+        <f t="shared" si="6"/>
+        <v>3.97</v>
+      </c>
+      <c r="E57" s="22">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="F57" s="22">
+        <f t="shared" si="6"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G57" s="22">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H57" s="22">
+        <f t="shared" si="6"/>
+        <v>0.09</v>
+      </c>
+      <c r="I57" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="22">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="R57" s="22">
+        <f t="shared" si="6"/>
+        <v>790</v>
+      </c>
+      <c r="S57" s="22">
+        <f t="shared" si="6"/>
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="22">
+        <f>B56-B57</f>
+        <v>0.38599999999999568</v>
+      </c>
+      <c r="C58" s="22">
+        <f t="shared" ref="C58:I58" si="7">C56-C57</f>
+        <v>0.75</v>
+      </c>
+      <c r="D58" s="22">
+        <f t="shared" si="7"/>
+        <v>0.2799999999999998</v>
+      </c>
+      <c r="E58" s="22">
+        <f t="shared" si="7"/>
+        <v>0.27</v>
+      </c>
+      <c r="F58" s="22">
+        <f t="shared" si="7"/>
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="G58" s="22">
+        <f t="shared" si="7"/>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H58" s="22">
+        <f t="shared" si="7"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="I58" s="22">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
+      <c r="Q58" s="22">
+        <f t="shared" ref="Q58" si="8">Q56-Q57</f>
+        <v>410</v>
+      </c>
+      <c r="R58" s="22">
+        <f t="shared" ref="R58" si="9">R56-R57</f>
+        <v>428</v>
+      </c>
+      <c r="S58" s="22">
+        <f t="shared" ref="S58" si="10">S56-S57</f>
+        <v>15.22</v>
       </c>
     </row>
   </sheetData>
@@ -9697,8 +10373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D6EDF3-9CBC-44F8-B387-6FD1F91538BB}">
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1048576"/>
+    <sheetView topLeftCell="P22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30:S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -11835,7 +12511,7 @@
         <v>3</v>
       </c>
       <c r="S30" s="14">
-        <v>1130</v>
+        <v>1045</v>
       </c>
       <c r="T30" s="14">
         <v>1178</v>
@@ -11872,7 +12548,7 @@
         <v>3</v>
       </c>
       <c r="S31" s="14">
-        <v>1183</v>
+        <v>1082</v>
       </c>
       <c r="T31" s="14">
         <v>1210</v>
@@ -11912,7 +12588,7 @@
         <v>3</v>
       </c>
       <c r="S32" s="14">
-        <v>1194</v>
+        <v>1090</v>
       </c>
       <c r="T32" s="14">
         <v>1205</v>
@@ -11949,7 +12625,7 @@
         <v>3</v>
       </c>
       <c r="S33" s="14">
-        <v>1220</v>
+        <v>1110</v>
       </c>
       <c r="T33" s="14">
         <v>1218</v>
@@ -11986,7 +12662,7 @@
         <v>3</v>
       </c>
       <c r="S34" s="14">
-        <v>1181</v>
+        <v>1084</v>
       </c>
       <c r="T34" s="14">
         <v>1170</v>
@@ -12023,7 +12699,7 @@
         <v>3</v>
       </c>
       <c r="S35" s="14">
-        <v>1152</v>
+        <v>1059</v>
       </c>
       <c r="T35" s="14">
         <v>1124</v>

--- a/TC4钛合金热处理研究进展/数据纯粹.xlsx
+++ b/TC4钛合金热处理研究进展/数据纯粹.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="8_{BD0F8152-EA0F-4234-AC7C-71486D2D23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2E7575-1986-40FD-A586-6DC157126B9F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
   </bookViews>
   <sheets>
     <sheet name="表格分析" sheetId="5" r:id="rId1"/>
@@ -3057,7 +3057,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6426,7 +6425,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14433177" y="1777702"/>
+              <a:off x="19751937" y="1777702"/>
               <a:ext cx="6055658" cy="3732903"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6875,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD340EAD-D28B-4DE0-A4BA-61E72E8B0F82}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10:Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -10040,7 +10039,7 @@
         <v>89.455042857142843</v>
       </c>
       <c r="C53" s="36">
-        <f t="shared" ref="C53:T53" si="2">(AVERAGE(C43:C52)+AVERAGE(C2:C29))/2</f>
+        <f t="shared" ref="C53:I53" si="2">(AVERAGE(C43:C52)+AVERAGE(C2:C29))/2</f>
         <v>6.1180357142857149</v>
       </c>
       <c r="D53" s="36">
@@ -10160,7 +10159,7 @@
         <v>2.215683926031322E-2</v>
       </c>
       <c r="C55" s="36">
-        <f t="shared" ref="C55:T55" si="4">VAR(C43:C52,C2:C29)</f>
+        <f t="shared" ref="C55:I55" si="4">VAR(C43:C52,C2:C29)</f>
         <v>6.5636699857752501E-2</v>
       </c>
       <c r="D55" s="36">

--- a/TC4钛合金热处理研究进展/数据纯粹.xlsx
+++ b/TC4钛合金热处理研究进展/数据纯粹.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="8_{BD0F8152-EA0F-4234-AC7C-71486D2D23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2E7575-1986-40FD-A586-6DC157126B9F}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
   </bookViews>
   <sheets>
     <sheet name="表格分析" sheetId="5" r:id="rId1"/>
@@ -6575,6 +6575,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -6874,8 +6878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD340EAD-D28B-4DE0-A4BA-61E72E8B0F82}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q52"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -10372,8 +10376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D6EDF3-9CBC-44F8-B387-6FD1F91538BB}">
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView topLeftCell="P22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30:S35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -14138,7 +14142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858A7356-63EE-4D6F-91A4-C6F5231C4E4F}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>

--- a/TC4钛合金热处理研究进展/数据纯粹.xlsx
+++ b/TC4钛合金热处理研究进展/数据纯粹.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6ef72d3e05109b7/本科毕业论文/论文/TC4钛合金热处理研究进展/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{BD0F8152-EA0F-4234-AC7C-71486D2D23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED30436-E9A0-45ED-9420-F48741C2A48C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{BD0F8152-EA0F-4234-AC7C-71486D2D23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5FF4427-D3DE-4F76-B00A-41436707BDAB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
   </bookViews>
   <sheets>
     <sheet name="表格分析" sheetId="5" r:id="rId1"/>
@@ -820,12 +820,6 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -853,6 +847,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -2325,6 +2325,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3123,13 +3124,8 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="lgDashDot"/>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3138,41 +3134,22 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>固溶温度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>/</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>℃</a:t>
                 </a:r>
               </a:p>
@@ -3188,39 +3165,25 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3241,13 +3204,8 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="lgDashDotDot"/>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3256,40 +3214,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>强度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>/Mpa</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3303,39 +3242,25 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3346,6 +3271,11 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
@@ -3370,21 +3300,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -3409,7 +3329,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4234,13 +4157,8 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="lgDashDot"/>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4249,41 +4167,22 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>时效温度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>/</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>℃</a:t>
                 </a:r>
               </a:p>
@@ -4299,39 +4198,25 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4352,13 +4237,8 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="lgDashDotDot"/>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4367,40 +4247,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>强度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>/Mpa</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4414,39 +4275,25 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4457,6 +4304,11 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
@@ -4481,21 +4333,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4520,7 +4362,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -6503,16 +6348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>197222</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>664028</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>430306</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>143434</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>359869</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>176092</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6542,13 +6387,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>708212</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>53789</xdr:rowOff>
+      <xdr:colOff>708211</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>595385</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>340659</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -6593,6 +6438,10 @@
 </file>
 
 <file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -6923,12 +6772,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD340EAD-D28B-4DE0-A4BA-61E72E8B0F82}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S90" sqref="S90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -10594,7 +10729,7 @@
       <c r="X2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Y2" s="46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10666,7 +10801,7 @@
       <c r="X3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="35"/>
+      <c r="Y3" s="46"/>
     </row>
     <row r="4" spans="1:25" s="4" customFormat="1" ht="15.6" customHeight="1">
       <c r="A4" s="18">
@@ -10736,7 +10871,7 @@
       <c r="X4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="35"/>
+      <c r="Y4" s="46"/>
     </row>
     <row r="5" spans="1:25" s="4" customFormat="1" ht="15.6" customHeight="1">
       <c r="A5" s="18">
@@ -10806,7 +10941,7 @@
       <c r="X5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="35"/>
+      <c r="Y5" s="46"/>
     </row>
     <row r="6" spans="1:25" s="4" customFormat="1" ht="15.6" customHeight="1">
       <c r="A6" s="18">
@@ -10876,7 +11011,7 @@
       <c r="X6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="35" t="s">
+      <c r="Y6" s="46" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10948,7 +11083,7 @@
       <c r="X7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="35"/>
+      <c r="Y7" s="46"/>
     </row>
     <row r="8" spans="1:25" s="4" customFormat="1" ht="15.6" customHeight="1">
       <c r="A8" s="18">
@@ -11018,7 +11153,7 @@
       <c r="X8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="35"/>
+      <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="1:25" s="4" customFormat="1" ht="15.6" customHeight="1">
       <c r="A9" s="18">
@@ -11085,7 +11220,7 @@
       <c r="W9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="35"/>
+      <c r="Y9" s="46"/>
     </row>
     <row r="10" spans="1:25" s="5" customFormat="1">
       <c r="A10" s="17">
@@ -11158,7 +11293,7 @@
       <c r="X10" s="5">
         <v>1</v>
       </c>
-      <c r="Y10" s="34" t="s">
+      <c r="Y10" s="45" t="s">
         <v>32</v>
       </c>
     </row>
@@ -11233,7 +11368,7 @@
       <c r="X11" s="5">
         <v>1</v>
       </c>
-      <c r="Y11" s="34"/>
+      <c r="Y11" s="45"/>
     </row>
     <row r="12" spans="1:25" s="5" customFormat="1">
       <c r="A12" s="17">
@@ -11306,7 +11441,7 @@
       <c r="X12" s="5">
         <v>1</v>
       </c>
-      <c r="Y12" s="34"/>
+      <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:25" s="5" customFormat="1">
       <c r="A13" s="17">
@@ -11379,7 +11514,7 @@
       <c r="X13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Y13" s="34" t="s">
+      <c r="Y13" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -11454,7 +11589,7 @@
       <c r="X14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Y14" s="34"/>
+      <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" s="5" customFormat="1">
       <c r="A15" s="17">
@@ -11527,7 +11662,7 @@
       <c r="X15" s="5">
         <v>1</v>
       </c>
-      <c r="Y15" s="34"/>
+      <c r="Y15" s="45"/>
     </row>
     <row r="16" spans="1:25" s="5" customFormat="1">
       <c r="A16" s="17">
@@ -11600,7 +11735,7 @@
       <c r="X16" s="5">
         <v>1</v>
       </c>
-      <c r="Y16" s="34"/>
+      <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:23" s="9" customFormat="1">
       <c r="A17" s="9">
@@ -16588,7 +16723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C58385-1E37-43D0-A9E0-3FE42C887CDE}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
@@ -16608,7 +16743,7 @@
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -16624,213 +16759,213 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="40" customFormat="1" ht="15">
-      <c r="A2" s="37">
+    <row r="2" spans="1:8" s="38" customFormat="1" ht="15">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="36">
         <v>910</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="36">
         <v>1</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="36">
         <v>510</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="36">
         <v>1</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="1:8" s="40" customFormat="1" ht="15">
-      <c r="A3" s="37">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38">
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" s="38" customFormat="1" ht="15">
+      <c r="A3" s="35">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36">
         <v>910</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="36">
         <v>1</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="36">
         <v>590</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="36">
         <v>1</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:8" s="40" customFormat="1" ht="15">
-      <c r="A4" s="37">
-        <v>3</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" s="38" customFormat="1" ht="15">
+      <c r="A4" s="35">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36">
         <v>910</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="36">
         <v>1</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="36">
         <v>550</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="36">
         <v>1</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="1:8" s="43" customFormat="1" ht="15">
-      <c r="A5" s="41">
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" s="41" customFormat="1" ht="15">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="40">
         <v>950</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="40">
         <v>1</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <v>590</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="36">
         <v>1</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="43" customFormat="1" ht="15">
-      <c r="A6" s="41">
+    <row r="6" spans="1:8" s="41" customFormat="1" ht="15">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="40">
         <v>950</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="40">
         <v>1</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="40">
         <v>550</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="36">
         <v>1</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="43" customFormat="1" ht="15">
-      <c r="A7" s="41">
+    <row r="7" spans="1:8" s="41" customFormat="1" ht="15">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="40">
         <v>950</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="40">
         <v>510</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>1</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" ht="15">
-      <c r="A8" s="44">
+    <row r="8" spans="1:8" s="44" customFormat="1" ht="15">
+      <c r="A8" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>990</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="43">
         <v>1</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="43">
         <v>550</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>1</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="46" customFormat="1" ht="15">
-      <c r="A9" s="44">
+    <row r="9" spans="1:8" s="44" customFormat="1" ht="15">
+      <c r="A9" s="42">
         <v>8</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="43">
         <v>990</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="43">
         <v>1</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="43">
         <v>510</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>1</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="46" customFormat="1" ht="15">
-      <c r="A10" s="44">
+    <row r="10" spans="1:8" s="44" customFormat="1" ht="15">
+      <c r="A10" s="42">
         <v>9</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="43">
         <v>990</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="43">
         <v>1</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="43">
         <v>590</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>1</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="36" t="s">
         <v>73</v>
       </c>
     </row>
